--- a/GemEffects.xlsx
+++ b/GemEffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abigail\Documents\sources\Minecraft\AbsentFluff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140AC6E0-B50E-449C-A74D-2DB144297BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2474AB65-FD74-45E5-ADEF-E67B7CD2F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="18510" windowHeight="15600" xr2:uid="{BF35417F-9AE5-4A58-B771-2BA65FAD6FCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BF35417F-9AE5-4A58-B771-2BA65FAD6FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>Gemstone</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Keybind burn nearby entities</t>
   </si>
   <si>
-    <t>One time burst</t>
-  </si>
-  <si>
     <t>Reusable active</t>
   </si>
   <si>
@@ -308,12 +305,6 @@
   </si>
   <si>
     <t>Key</t>
-  </si>
-  <si>
-    <t>Bomb?</t>
-  </si>
-  <si>
-    <t>Lifesteal</t>
   </si>
   <si>
     <t>Lightning</t>
@@ -331,9 +322,6 @@
 32 charges</t>
   </si>
   <si>
-    <t>Mining fatigue, bonus health</t>
-  </si>
-  <si>
     <t>Dolphins Grace</t>
   </si>
   <si>
@@ -348,10 +336,6 @@
 3 charges</t>
   </si>
   <si>
-    <t>1 second invincibility, regen 4
-1 Charge</t>
-  </si>
-  <si>
     <t>Hostile mob detection reduced</t>
   </si>
   <si>
@@ -368,6 +352,63 @@
   </si>
   <si>
     <t>Bonus damage based on resistance effect</t>
+  </si>
+  <si>
+    <t>Bomb</t>
+  </si>
+  <si>
+    <t>Bonemeal explosion</t>
+  </si>
+  <si>
+    <t>No fall damage
+Jump boost 1</t>
+  </si>
+  <si>
+    <t>Place lava
+8 charges</t>
+  </si>
+  <si>
+    <t>Up to 100% increased damage when low health
+(+100% damage at 2 hearts, -12% per additional heart)</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Throwable</t>
+  </si>
+  <si>
+    <t>Destroys and voids blocks and deals massive damage</t>
+  </si>
+  <si>
+    <t>Summon a black hole, players unaffected
+1 Charge</t>
+  </si>
+  <si>
+    <t>When you take void damage, teleport to bed</t>
+  </si>
+  <si>
+    <t>Pull mobs towards you
+OR
+Haste 3 but void broken blocks</t>
+  </si>
+  <si>
+    <t>Black Tourmaline</t>
+  </si>
+  <si>
+    <t>Enderman are passive</t>
+  </si>
+  <si>
+    <t>Attackers explode</t>
+  </si>
+  <si>
+    <t>Bloodborne rally effect</t>
+  </si>
+  <si>
+    <t>Regeneration 1</t>
+  </si>
+  <si>
+    <t>Fire Bomb</t>
   </si>
 </sst>
 </file>
@@ -383,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +456,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,23 +783,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED1158-FB4E-43C4-A3BD-592D37EA3AE0}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,184 +807,151 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
       <c r="F2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>107</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -941,19 +959,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -961,44 +976,39 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1006,24 +1016,24 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1033,13 +1043,10 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1048,16 +1055,18 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
